--- a/LTV of Customer Case.xlsx
+++ b/LTV of Customer Case.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Academics\FPAC prep\Boot Camp Materials\Class 3\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1B6CADFC-CB30-4C49-8CE8-7910B48CD01C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5ADD2170-507E-4786-B661-2A76ACE2C5B8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -21,14 +21,6 @@
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
-    </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
@@ -177,7 +169,7 @@
     <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="9" fontId="4" fillId="0" borderId="0" xfId="2" applyFont="1"/>
@@ -191,6 +183,7 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Currency" xfId="1" builtinId="4"/>
@@ -684,10 +677,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:E19"/>
+  <dimension ref="A1:F19"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="H15" sqref="H15"/>
+      <selection activeCell="I16" sqref="I16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -696,23 +689,23 @@
     <col min="4" max="4" width="10.81640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:6" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A1" s="11" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A2" s="4"/>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A3" s="12" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A4" s="4"/>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A5" s="9" t="s">
         <v>9</v>
       </c>
@@ -723,7 +716,7 @@
       <c r="D5" s="10"/>
       <c r="E5" s="10"/>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A6" s="2">
         <v>0.1</v>
       </c>
@@ -731,7 +724,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A7" s="2">
         <v>0.45</v>
       </c>
@@ -739,7 +732,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A8" s="2">
         <v>0.5</v>
       </c>
@@ -747,7 +740,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A9" s="6">
         <f>100</f>
         <v>100</v>
@@ -756,15 +749,15 @@
         <v>11</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A10" s="6"/>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A12" s="9" t="s">
         <v>3</v>
       </c>
@@ -781,7 +774,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A13" s="5">
         <v>1</v>
       </c>
@@ -800,8 +793,12 @@
         <f>D13/(1+$A$6)^A13</f>
         <v>10</v>
       </c>
-    </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F13" s="13">
+        <f>D13/(1+$A$6)^A13</f>
+        <v>10</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A14" s="5">
         <v>2</v>
       </c>
@@ -821,8 +818,12 @@
         <f>D14/(1+$A$6)^A14</f>
         <v>13.636363636363635</v>
       </c>
-    </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F14" s="13">
+        <f t="shared" ref="F14:F17" si="1">D14/(1+$A$6)^A14</f>
+        <v>13.636363636363635</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A15" s="5">
         <v>3</v>
       </c>
@@ -842,8 +843,12 @@
         <f>D15/(1+$A$6)^A15</f>
         <v>18.595041322314042</v>
       </c>
-    </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F15" s="13">
+        <f t="shared" si="1"/>
+        <v>18.595041322314042</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A16" s="5">
         <v>4</v>
       </c>
@@ -863,8 +868,12 @@
         <f>D16/(1+$A$6)^A16</f>
         <v>25.356874530428243</v>
       </c>
-    </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F16" s="13">
+        <f t="shared" si="1"/>
+        <v>25.356874530428243</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A17" s="5">
         <v>5</v>
       </c>
@@ -884,8 +893,12 @@
         <f>D17/(1+$A$6)^A17</f>
         <v>34.577556177856692</v>
       </c>
-    </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F17" s="13">
+        <f t="shared" si="1"/>
+        <v>34.577556177856692</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A19" s="7" t="s">
         <v>4</v>
       </c>
@@ -893,6 +906,7 @@
         <f>SUM(E13:E17)-A9</f>
         <v>2.1658356669626073</v>
       </c>
+      <c r="F19" s="13"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
